--- a/Data Login/LoginData - Copy.xlsx
+++ b/Data Login/LoginData - Copy.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RICKY-HARBU\Katalon Studio\Final Project Training Batch2\Data Login\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RICKY-HARBU\git\katalon\Data Login\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0242A52-D2E0-4EAE-82CD-9D45470F7B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D301D827-F915-4D72-BFBA-C85A49A1CA09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{412DDF1C-8B1E-42EE-95BB-0A7C49983677}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>username</t>
   </si>
@@ -36,10 +36,13 @@
     <t>papahgilak@gmail.com</t>
   </si>
   <si>
-    <t>coba@gmail.com</t>
-  </si>
-  <si>
     <t>ANgLrNN9LeX238E+iUxpGw==</t>
+  </si>
+  <si>
+    <t>christiansimanjuntak12@gmail.com</t>
+  </si>
+  <si>
+    <t>AJxgTO7PuudFJYJNyubGtA==</t>
   </si>
 </sst>
 </file>
@@ -405,7 +408,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,15 +430,15 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
